--- a/Qualitative Coding/Artifact-Info Mapping.xlsx
+++ b/Qualitative Coding/Artifact-Info Mapping.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703DD37-8AF5-4E3B-87C8-12C56D0F5F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7752D-D209-4B6E-AEA6-5140943FA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C6B4E7-8C00-49B1-A28B-F9B19A278EBA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Artifact-Info Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Common Themes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -314,9 +315,6 @@
     <t>using-the-project</t>
   </si>
   <si>
-    <t>Note: total number of documents will change when we remove repos that are not coded</t>
-  </si>
-  <si>
     <t>COMMON THEMES OBSERVED</t>
   </si>
   <si>
@@ -363,6 +361,9 @@
   </si>
   <si>
     <t>Templates</t>
+  </si>
+  <si>
+    <t>Codes</t>
   </si>
 </sst>
 </file>
@@ -394,24 +395,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -439,22 +428,286 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,6 +718,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95806795-DAB6-483D-84E1-860C06A33CE1}" name="Table2" displayName="Table2" ref="A1:Z68" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:Z68" xr:uid="{95806795-DAB6-483D-84E1-860C06A33CE1}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{4A787D30-C8AA-4B56-AC81-6D61A55A535C}" name="Codes" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{18B2F888-FBAF-4FD2-8B03-5C6BF2BF9B60}" name="&quot;Install&quot;" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{B8124C86-97C7-48BF-9DB7-FA519ADB509C}" name="&quot;Contribut&quot;" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{85CE19B2-E2BE-4BB0-997A-BFFCB002ACD5}" name="&quot;issue&quot; " dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{E2C79178-C119-46AF-B3D3-0B8DB1A574EA}" name="&quot;README&quot;" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{B74B8DA9-3639-422F-B53C-49ADE7B07DD2}" name="&quot;Code_of_conduct&quot; " dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{83E70FB7-F725-46F6-B16D-4FF5EAD55A36}" name="&quot;template&quot; " dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{4895766E-BF03-47F9-9050-AF4DDE5E0A10}" name="&quot;security&quot;" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{EDBFCE59-42C1-4A8A-B0D9-BD3DA21E055D}" name="&quot;wiki&quot;" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{C346AB90-06D4-4E42-A88E-0278AAFC07DC}" name="&quot;release&quot;" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{B0A5E40A-8667-44F6-87C0-185F130F91E2}" name="&quot;change&quot;" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{236BC280-4889-4807-9154-50655DEAD3C9}" name="&quot;commit&quot;" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{68AAB8CC-FD2B-4376-9B9C-8621E747A33D}" name="&quot;licens&quot;" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{E007882F-B51E-4C05-AA3A-A410FA211342}" name="&quot;develop&quot;" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{9B1DB3D1-F2DA-45C1-A13A-481E2B7402AD}" name="&quot;feature_request&quot; and &quot;feature-request&quot;" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{34F8086C-6009-4EE2-BECE-C3E37EE6BEF8}" name="&quot;bug_report&quot; and &quot;bug-report&quot;" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{44CF3CF5-7769-43C6-A4CC-12FE014D93C0}" name="&quot;pull&quot;" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{C6C08561-35F3-487A-B0F6-EDD519F1EFAC}" name="&quot;test&quot;" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{4542C282-2C7B-4A70-B687-D612803E4272}" name="&quot;collab&quot;" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{4D612858-27B7-4810-8BD0-95BA726FC279}" name="&quot;communi&quot;" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{A5C3FCAC-56B7-4FA3-85B0-8DD1394EE8B3}" name="&quot;support&quot;" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{C792D72D-DE43-466F-B5DD-1000DD6D725D}" name="&quot;upgrad&quot;" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{C602EFF4-7D55-4558-8E26-E344C8F7F604}" name="&quot;help&quot;" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{624B6283-0139-4078-AADF-403420D9ADAB}" name="&quot;roadmap&quot;" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{6AF53680-1FA8-4F0F-BDD8-F600A7390DA6}" name="&quot;build&quot;" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{24118868-745D-43C8-804E-400B86680FEE}" name="&quot;document&quot;" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,21 +1052,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852A7E56-EB98-420A-B684-1DD45D8D58B0}">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="26" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" customWidth="1"/>
     <col min="29" max="29" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,50 +1167,55 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>60</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3"/>
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="4"/>
@@ -933,254 +1251,394 @@
       <c r="Z3" s="4"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>22</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>23</v>
       </c>
-      <c r="I4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>93</v>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>27</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>6</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>28</v>
       </c>
-      <c r="P8" s="2">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
         <v>18</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>16</v>
       </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
         <v>7</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>2</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>75</v>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
+        <v>2</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="AC10" t="s">
-        <v>76</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>13</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>77</v>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>20</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
         <v>4</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>91</v>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="4">
@@ -1236,378 +1694,623 @@
         <v>6</v>
       </c>
       <c r="Z13" s="4"/>
-      <c r="AC13" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <v>21</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="I14">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <v>6</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>69</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>12</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
         <v>4</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
         <v>3</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>2</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>2</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="AC19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
         <v>12</v>
       </c>
-      <c r="I20">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
         <v>5</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
         <v>17</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4">
         <v>4</v>
       </c>
-      <c r="AC20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
         <v>10</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>14</v>
       </c>
-      <c r="I21">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
         <v>6</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4">
         <v>3</v>
       </c>
-      <c r="AC21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
         <v>4</v>
       </c>
-      <c r="I24">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
         <v>5</v>
       </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
         <v>6</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
         <v>5</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
         <v>13</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>2</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>22</v>
       </c>
-      <c r="E28" s="2">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
         <v>53</v>
       </c>
-      <c r="I28">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
         <v>10</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
         <v>4</v>
       </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="2">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4">
+        <v>2</v>
+      </c>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4">
         <v>5</v>
       </c>
-      <c r="AC28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="4">
@@ -1681,770 +2384,1353 @@
       <c r="Z29" s="4">
         <v>5</v>
       </c>
-      <c r="AC29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="I30">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
         <v>5</v>
       </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
         <v>24</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>6</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
         <v>6</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C32">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
         <v>0</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>16</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="2">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
         <v>17</v>
       </c>
-      <c r="O32" s="2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4">
         <v>14</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
         <v>11</v>
       </c>
-      <c r="AC33" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C34">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C36">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4">
         <v>4</v>
       </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C38">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
         <v>5</v>
       </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="AC38" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
+        <v>2</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4">
+        <v>2</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
         <v>0</v>
       </c>
-      <c r="AC39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="E40">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
         <v>0</v>
       </c>
-      <c r="AC40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C41">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
         <v>0</v>
       </c>
-      <c r="AC41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C42">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4">
         <v>12</v>
       </c>
-      <c r="E42">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C43">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4">
         <v>3</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4">
         <v>39</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>9</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>7</v>
       </c>
-      <c r="G44">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4">
         <v>7</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>3</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4">
+        <v>2</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4">
+        <v>2</v>
+      </c>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>26</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>0</v>
       </c>
-      <c r="G45" s="2">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4">
         <v>29</v>
       </c>
-      <c r="Q45">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4">
         <v>3</v>
       </c>
-      <c r="U45">
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4">
         <v>3</v>
       </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-      <c r="Z45">
-        <v>2</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C46">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4">
         <v>13</v>
       </c>
-      <c r="E46" s="2">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
         <v>31</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4">
         <v>16</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N46" s="4">
+        <v>1</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C47">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
         <v>5</v>
       </c>
-      <c r="AC47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C48">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4">
         <v>7</v>
       </c>
-      <c r="E48">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4">
+        <v>1</v>
+      </c>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4">
         <v>38</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
         <v>5</v>
       </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="I49">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4">
         <v>5</v>
       </c>
-      <c r="R49">
-        <v>2</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4">
+        <v>2</v>
+      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C50">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4">
         <v>0</v>
       </c>
-      <c r="AC50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
         <v>9</v>
       </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="I51">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
         <v>9</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="N51">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4">
         <v>3</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O51" s="4"/>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4">
         <v>10</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
+        <v>2</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C53">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4">
         <v>10</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
         <v>16</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="Z53">
-        <v>1</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C54">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4">
         <v>5</v>
       </c>
-      <c r="E54">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4">
         <v>5</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4">
+        <v>1</v>
+      </c>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
         <v>26</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
         <v>4</v>
       </c>
-      <c r="G55" s="2">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4">
         <v>19</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4">
+        <v>1</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4">
         <v>18</v>
       </c>
-      <c r="Z55">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="X56">
-        <v>1</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C57">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4">
         <v>4</v>
       </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4">
+        <v>2</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C58">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4">
         <v>15</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="I58">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4">
         <v>8</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="4">
         <v>4</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="4">
         <v>20</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4">
+        <v>2</v>
+      </c>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C59">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4">
         <v>5</v>
       </c>
-      <c r="E59">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4">
         <v>3</v>
       </c>
-      <c r="I59">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
         <v>3</v>
       </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="Z59">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4">
+        <v>1</v>
+      </c>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4">
         <v>3</v>
       </c>
-      <c r="AC59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4">
         <v>18</v>
       </c>
-      <c r="AC60" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C61">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4">
+        <v>1</v>
+      </c>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C62">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4">
         <v>12</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4">
         <v>8</v>
       </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="U62">
-        <v>2</v>
-      </c>
-      <c r="AC62" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4">
+        <v>2</v>
+      </c>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C63">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4">
         <v>8</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B64" s="4"/>
@@ -2482,383 +3768,1117 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
-      <c r="AC64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C65">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4">
         <v>9</v>
       </c>
-      <c r="E65">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
         <v>5</v>
       </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>2</v>
-      </c>
-      <c r="R65" s="2">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4">
+        <v>2</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4">
+        <v>2</v>
+      </c>
+      <c r="R65" s="4">
         <v>4</v>
       </c>
-      <c r="X65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4">
         <v>25</v>
       </c>
-      <c r="E66" s="2">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4">
         <v>31</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="I66">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4">
         <v>3</v>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-      <c r="R66" s="2">
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4">
         <v>15</v>
       </c>
-      <c r="W66">
-        <v>2</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4">
+        <v>2</v>
+      </c>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C67">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
         <v>3</v>
       </c>
-      <c r="E67">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4">
         <v>6</v>
       </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="Z67">
-        <v>1</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4">
+        <v>2</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>5</v>
       </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="C68" s="4">
+        <v>2</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4">
         <v>94</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2</v>
+      </c>
+      <c r="I68" s="4">
         <v>28</v>
       </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="N68" s="2">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4">
+        <v>2</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
         <v>13</v>
       </c>
-      <c r="R68">
-        <v>2</v>
-      </c>
-      <c r="U68">
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4">
+        <v>2</v>
+      </c>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4">
         <v>4</v>
       </c>
-      <c r="V68">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="2">
+      <c r="V68" s="4">
+        <v>1</v>
+      </c>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4">
         <v>5</v>
       </c>
-      <c r="Z68">
-        <v>1</v>
-      </c>
-      <c r="AC68" t="s">
+      <c r="Z68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF999E7B-BDF2-42E8-B30A-8CB270EAE050}">
+  <dimension ref="A1:A114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection sqref="A1:A114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC69" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC70" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC71" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC72" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC75" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC82" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC85" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC87" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC88" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC90" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC92" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC95" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC97" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC100" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC101" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC102" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC103" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC106" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC108" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC110" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC111" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC112" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC113" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC114" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="115" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC115" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC116" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC117" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
